--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -159,49 +159,49 @@
     <t>energy_led_cov</t>
   </si>
   <si>
-    <t>energy_led</t>
+    <t>energy_led_effect</t>
   </si>
   <si>
     <t>low_emit_mat_cov</t>
   </si>
   <si>
-    <t>low_emit_mat</t>
+    <t>low_emit_mat_effect</t>
   </si>
   <si>
     <t>electric_cars_cov</t>
   </si>
   <si>
-    <t>electric_cars</t>
+    <t>electric_cars_effect</t>
   </si>
   <si>
     <t>low_emit_gas_cov</t>
   </si>
   <si>
-    <t>low_emit_gas</t>
+    <t>low_emit_gas_effect</t>
   </si>
   <si>
     <t>borehole_water_cov</t>
   </si>
   <si>
-    <t>borehole_water</t>
+    <t>borehole_water_effect</t>
   </si>
   <si>
     <t>recycle_cov</t>
   </si>
   <si>
-    <t>recycle</t>
+    <t>recycle_effect</t>
   </si>
   <si>
     <t>low_emit_inhale_cov</t>
   </si>
   <si>
-    <t>low_emit_inhale</t>
+    <t>low_emit_inhale_effect</t>
   </si>
   <si>
     <t>local_procure_cov</t>
   </si>
   <si>
-    <t>local_procure</t>
+    <t>local_procure_effect</t>
   </si>
   <si>
     <t>Total CO2e emissions</t>
@@ -216,55 +216,55 @@
     <t>Energy saving LED - coverage</t>
   </si>
   <si>
-    <t>Energy saving LED</t>
+    <t>Energy saving LED - effect</t>
   </si>
   <si>
     <t>Low emitting materials - coverage</t>
   </si>
   <si>
-    <t>Low emitting materials</t>
+    <t>Low emitting materials - effect</t>
   </si>
   <si>
     <t>Electric cars - coverage</t>
   </si>
   <si>
-    <t>Electric cars</t>
+    <t>Electric cars - effect</t>
   </si>
   <si>
     <t>Low emitting anesthetic gases - coverage</t>
   </si>
   <si>
-    <t>Low emitting anesthetic gases</t>
+    <t>Low emitting anesthetic gases - effect</t>
   </si>
   <si>
     <t>Borehole water - coverage</t>
   </si>
   <si>
-    <t>Borehole water</t>
+    <t>Borehole water - effect</t>
   </si>
   <si>
     <t>Recycling - coverage</t>
   </si>
   <si>
-    <t>Recycling</t>
+    <t>Recycling - effect</t>
   </si>
   <si>
     <t>Low emitting inhalers - coverage</t>
   </si>
   <si>
-    <t>Low emitting inhalers</t>
+    <t>Low emitting inhalers - effect</t>
   </si>
   <si>
     <t>Local procurements - coverage</t>
   </si>
   <si>
-    <t>Local procurements</t>
+    <t>Local procurements - effect</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
-    <t>1*(1-energy_led_cov*energy_led)*(1-low_emit_mat_cov*low_emit_mat)*(1-electric_cars_cov*electric_cars)*(1-low_emit_gas_cov*low_emit_gas)*(1-borehole_water_cov*borehole_water)*(1-recycle_cov*recycle)*(1-low_emit_inhale_cov*low_emit_inhale)*(1-local_procure_cov*local_procure)</t>
+    <t>1*(1-energy_led_cov*energy_led_effect)*(1-low_emit_mat_cov*low_emit_mat_effect)*(1-electric_cars_cov*electric_cars_effect)*(1-low_emit_gas_cov*low_emit_gas_effect)*(1-borehole_water_cov*borehole_water_effect)*(1-recycle_cov*recycle_effect)*(1-low_emit_inhale_cov*low_emit_inhale_effect)*(1-local_procure_cov*local_procure_effect)</t>
   </si>
   <si>
     <t>co2e_emissions*overall_multiplier</t>
@@ -282,7 +282,7 @@
     <t>Actual emissions after applying program effects.</t>
   </si>
   <si>
-    <t>Input as X% reduction in emissions</t>
+    <t>Reduction in emissions (proportion)</t>
   </si>
   <si>
     <t>Components</t>
@@ -1034,12 +1034,6 @@
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
@@ -1101,12 +1095,6 @@
       <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
@@ -1168,12 +1156,6 @@
       <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="I10" t="s">
         <v>30</v>
       </c>
@@ -1235,12 +1217,6 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="I12" t="s">
         <v>30</v>
       </c>
@@ -1302,12 +1278,6 @@
       <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="I14" t="s">
         <v>30</v>
       </c>
@@ -1369,12 +1339,6 @@
       <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="I16" t="s">
         <v>30</v>
       </c>
@@ -1436,12 +1400,6 @@
       <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="I18" t="s">
         <v>30</v>
       </c>
@@ -1502,12 +1460,6 @@
       </c>
       <c r="C20" t="s">
         <v>79</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189D795F-656D-43F5-BBF3-9459AF4EDE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,20 @@
     <sheet name="Cascades" sheetId="8" r:id="rId8"/>
     <sheet name="Plots" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -312,8 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,13 +395,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +447,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -454,6 +481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -488,9 +516,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -663,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -692,14 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -707,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -715,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -723,7 +752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -731,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -745,14 +774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -760,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -774,14 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -816,7 +845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -851,14 +880,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -908,7 +939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -937,7 +968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -963,7 +994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -992,7 +1023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1024,7 +1055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1053,7 +1084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1114,7 +1145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1146,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1175,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1236,7 +1267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1268,7 +1299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1329,7 +1360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1358,7 +1389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1390,7 +1421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1419,7 +1450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1451,7 +1482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1486,26 +1517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1546,14 +1577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1567,14 +1598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA84216-65C0-46BD-B4F3-171D979B66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <sheet name="Cascades" sheetId="8" r:id="rId8"/>
     <sheet name="Plots" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -618,8 +624,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,10 +677,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,13 +691,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,7 +743,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -760,6 +777,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -794,9 +812,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,14 +988,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -998,14 +1019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1043,14 +1064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1072,14 +1093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1149,14 +1170,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="208.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1206,7 +1247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1216,7 +1257,7 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I2" t="s">
@@ -1232,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1258,7 +1299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1293,14 +1334,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>139</v>
       </c>
       <c r="I5" t="s">
@@ -1319,7 +1360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1345,7 +1386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1380,14 +1421,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>140</v>
       </c>
       <c r="I8" t="s">
@@ -1406,7 +1447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1467,14 +1508,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I11" t="s">
@@ -1493,7 +1534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1519,7 +1560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1554,14 +1595,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>100</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>142</v>
       </c>
       <c r="I14" t="s">
@@ -1580,7 +1621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1606,7 +1647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1641,14 +1682,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I17" t="s">
@@ -1667,7 +1708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1693,7 +1734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1728,14 +1769,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>144</v>
       </c>
       <c r="I20" t="s">
@@ -1754,7 +1795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1780,7 +1821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1815,14 +1856,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I23" t="s">
@@ -1841,7 +1882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1867,7 +1908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1902,14 +1943,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>112</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I26" t="s">
@@ -1928,7 +1969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1954,7 +1995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1989,14 +2030,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>115</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I29" t="s">
@@ -2015,7 +2056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2041,7 +2082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2076,14 +2117,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>118</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>148</v>
       </c>
       <c r="I32" t="s">
@@ -2102,7 +2143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2128,7 +2169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2163,14 +2204,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" t="s">
         <v>121</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>149</v>
       </c>
       <c r="I35" t="s">
@@ -2189,7 +2230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2215,7 +2256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2250,14 +2291,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>124</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="I38" t="s">
@@ -2276,7 +2317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2302,7 +2343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2337,14 +2378,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>127</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>151</v>
       </c>
       <c r="I41" t="s">
@@ -2363,7 +2404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -2389,7 +2430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -2424,14 +2465,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>81</v>
       </c>
       <c r="B44" t="s">
         <v>130</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>152</v>
       </c>
       <c r="I44" t="s">
@@ -2450,7 +2491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2476,7 +2517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2511,14 +2552,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>153</v>
       </c>
       <c r="I47" t="s">
@@ -2537,7 +2578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -2563,7 +2604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -2598,14 +2639,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
       <c r="B50" t="s">
         <v>136</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>154</v>
       </c>
       <c r="I50" t="s">
@@ -2630,26 +2671,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2690,14 +2731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -2711,14 +2752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -143,160 +143,160 @@
     <t>co2e_emissions</t>
   </si>
   <si>
+    <t>energy_baseline</t>
+  </si>
+  <si>
+    <t>energy_mult</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>energy_mult</t>
-  </si>
-  <si>
-    <t>energy_actual</t>
+    <t>vehicle_fuel_baseline</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_mult</t>
   </si>
   <si>
     <t>vehicle_fuel</t>
   </si>
   <si>
-    <t>vehicle_fuel_mult</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_actual</t>
+    <t>travel_baseline</t>
+  </si>
+  <si>
+    <t>travel_mult</t>
   </si>
   <si>
     <t>travel</t>
   </si>
   <si>
-    <t>travel_mult</t>
-  </si>
-  <si>
-    <t>travel_actual</t>
+    <t>anaesthetic_gases_baseline</t>
+  </si>
+  <si>
+    <t>anaesthetic_gases_mult</t>
   </si>
   <si>
     <t>anaesthetic_gases</t>
   </si>
   <si>
-    <t>anaesthetic_gases_mult</t>
-  </si>
-  <si>
-    <t>anaesthetic_gases_actual</t>
+    <t>refridgerant_baseline</t>
+  </si>
+  <si>
+    <t>refridgerant_mult</t>
   </si>
   <si>
     <t>refridgerant</t>
   </si>
   <si>
-    <t>refridgerant_mult</t>
-  </si>
-  <si>
-    <t>refridgerant_actual</t>
+    <t>waste_baseline</t>
+  </si>
+  <si>
+    <t>waste_mult</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>waste_mult</t>
-  </si>
-  <si>
-    <t>waste_actual</t>
+    <t>inhalers_baseline</t>
+  </si>
+  <si>
+    <t>inhalers_mult</t>
   </si>
   <si>
     <t>inhalers</t>
   </si>
   <si>
-    <t>inhalers_mult</t>
-  </si>
-  <si>
-    <t>inhalers_actual</t>
-  </si>
-  <si>
     <t>Total CO2e emissions</t>
   </si>
   <si>
+    <t>Energy - baseline</t>
+  </si>
+  <si>
+    <t>Energy - multiplier</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Energy - multiplier</t>
-  </si>
-  <si>
-    <t>Energy - actual</t>
+    <t>Vehicle Fuel - baseline</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel - multiplier</t>
   </si>
   <si>
     <t>Vehicle Fuel</t>
   </si>
   <si>
-    <t>Vehicle Fuel - multiplier</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel - actual</t>
+    <t>Travel - baseline</t>
+  </si>
+  <si>
+    <t>Travel - multiplier</t>
   </si>
   <si>
     <t>Travel</t>
   </si>
   <si>
-    <t>Travel - multiplier</t>
-  </si>
-  <si>
-    <t>Travel - actual</t>
+    <t>Anaesthetic Gases - baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic Gases - multiplier</t>
   </si>
   <si>
     <t>Anaesthetic Gases</t>
   </si>
   <si>
-    <t>Anaesthetic Gases - multiplier</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases - actual</t>
+    <t>Refridgerant - baseline</t>
+  </si>
+  <si>
+    <t>Refridgerant - multiplier</t>
   </si>
   <si>
     <t>Refridgerant</t>
   </si>
   <si>
-    <t>Refridgerant - multiplier</t>
-  </si>
-  <si>
-    <t>Refridgerant - actual</t>
+    <t>Waste - baseline</t>
+  </si>
+  <si>
+    <t>Waste - multiplier</t>
   </si>
   <si>
     <t>Waste</t>
   </si>
   <si>
-    <t>Waste - multiplier</t>
-  </si>
-  <si>
-    <t>Waste - actual</t>
+    <t>Inhalers - baseline</t>
+  </si>
+  <si>
+    <t>Inhalers - multiplier</t>
   </si>
   <si>
     <t>Inhalers</t>
   </si>
   <si>
-    <t>Inhalers - multiplier</t>
-  </si>
-  <si>
-    <t>Inhalers - actual</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>energy_actual+vehicle_fuel_actual+travel_actual+anaesthetic_gases_actual+refridgerant_actual+waste_actual+inhalers_actual</t>
-  </si>
-  <si>
-    <t>energy*(1-energy_mult)</t>
-  </si>
-  <si>
-    <t>vehicle_fuel*(1-vehicle_fuel_mult)</t>
-  </si>
-  <si>
-    <t>travel*(1-travel_mult)</t>
-  </si>
-  <si>
-    <t>anaesthetic_gases*(1-anaesthetic_gases_mult)</t>
-  </si>
-  <si>
-    <t>refridgerant*(1-refridgerant_mult)</t>
-  </si>
-  <si>
-    <t>waste*(1-waste_mult)</t>
-  </si>
-  <si>
-    <t>inhalers*(1-inhalers_mult)</t>
+    <t>energy+vehicle_fuel+travel+anaesthetic_gases+refridgerant+waste+inhalers</t>
+  </si>
+  <si>
+    <t>energy_baseline*(1-energy_mult)</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_baseline*(1-vehicle_fuel_mult)</t>
+  </si>
+  <si>
+    <t>travel_baseline*(1-travel_mult)</t>
+  </si>
+  <si>
+    <t>anaesthetic_gases_baseline*(1-anaesthetic_gases_mult)</t>
+  </si>
+  <si>
+    <t>refridgerant_baseline*(1-refridgerant_mult)</t>
+  </si>
+  <si>
+    <t>waste_baseline*(1-waste_mult)</t>
+  </si>
+  <si>
+    <t>inhalers_baseline*(1-inhalers_mult)</t>
   </si>
   <si>
     <t>y</t>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Targetable</t>
   </si>
   <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
     <t>co2e_emissions</t>
   </si>
   <si>
@@ -152,22 +146,40 @@
     <t>energy</t>
   </si>
   <si>
-    <t>vehicle_fuel_baseline</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_mult</t>
-  </si>
-  <si>
-    <t>vehicle_fuel</t>
-  </si>
-  <si>
-    <t>travel_baseline</t>
-  </si>
-  <si>
-    <t>travel_mult</t>
-  </si>
-  <si>
-    <t>travel</t>
+    <t>bottled_gas_LPG_baseline</t>
+  </si>
+  <si>
+    <t>bottled_gas_LPG_mult</t>
+  </si>
+  <si>
+    <t>bottled_gas_LPG</t>
+  </si>
+  <si>
+    <t>refridgerants_baseline</t>
+  </si>
+  <si>
+    <t>refridgerants_mult</t>
+  </si>
+  <si>
+    <t>refridgerants</t>
+  </si>
+  <si>
+    <t>liquid_fuel_baseline</t>
+  </si>
+  <si>
+    <t>liquid_fuel_mult</t>
+  </si>
+  <si>
+    <t>liquid_fuel</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_owned_baseline</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_owned_mult</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_owned</t>
   </si>
   <si>
     <t>anaesthetic_gases_baseline</t>
@@ -179,15 +191,6 @@
     <t>anaesthetic_gases</t>
   </si>
   <si>
-    <t>refridgerant_baseline</t>
-  </si>
-  <si>
-    <t>refridgerant_mult</t>
-  </si>
-  <si>
-    <t>refridgerant</t>
-  </si>
-  <si>
     <t>waste_baseline</t>
   </si>
   <si>
@@ -218,22 +221,40 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Vehicle Fuel - baseline</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel - multiplier</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel</t>
-  </si>
-  <si>
-    <t>Travel - baseline</t>
-  </si>
-  <si>
-    <t>Travel - multiplier</t>
-  </si>
-  <si>
-    <t>Travel</t>
+    <t>Bottled gas(LPG) - baseline</t>
+  </si>
+  <si>
+    <t>Bottled gas(LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Bottled gas(LPG)</t>
+  </si>
+  <si>
+    <t>Refridgerants - baseline</t>
+  </si>
+  <si>
+    <t>Refridgerants - multiplier</t>
+  </si>
+  <si>
+    <t>Refridgerants</t>
+  </si>
+  <si>
+    <t>Liquid fuel(Petrol or Diesel) - baseline</t>
+  </si>
+  <si>
+    <t>Liquid fuel(Petrol or Diesel) - multiplier</t>
+  </si>
+  <si>
+    <t>Liquid fuel(Petrol or Diesel)</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles)</t>
   </si>
   <si>
     <t>Anaesthetic Gases - baseline</t>
@@ -245,15 +266,6 @@
     <t>Anaesthetic Gases</t>
   </si>
   <si>
-    <t>Refridgerant - baseline</t>
-  </si>
-  <si>
-    <t>Refridgerant - multiplier</t>
-  </si>
-  <si>
-    <t>Refridgerant</t>
-  </si>
-  <si>
     <t>Waste - baseline</t>
   </si>
   <si>
@@ -275,22 +287,25 @@
     <t>number</t>
   </si>
   <si>
-    <t>energy+vehicle_fuel+travel+anaesthetic_gases+refridgerant+waste+inhalers</t>
+    <t>energy+bottled_gas_LPG+refridgerants+liquid_fuel+vehicle_fuel_owned+anaesthetic_gases+waste+inhalers</t>
   </si>
   <si>
     <t>energy_baseline*(1-energy_mult)</t>
   </si>
   <si>
-    <t>vehicle_fuel_baseline*(1-vehicle_fuel_mult)</t>
-  </si>
-  <si>
-    <t>travel_baseline*(1-travel_mult)</t>
+    <t>bottled_gas_LPG_baseline*(1-bottled_gas_LPG_mult)</t>
+  </si>
+  <si>
+    <t>refridgerants_baseline*(1-refridgerants_mult)</t>
+  </si>
+  <si>
+    <t>liquid_fuel_baseline*(1-liquid_fuel_mult)</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_owned_baseline*(1-vehicle_fuel_owned_mult)</t>
   </si>
   <si>
     <t>anaesthetic_gases_baseline*(1-anaesthetic_gases_mult)</t>
-  </si>
-  <si>
-    <t>refridgerant_baseline*(1-refridgerant_mult)</t>
   </si>
   <si>
     <t>waste_baseline*(1-waste_mult)</t>
@@ -861,13 +876,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -905,38 +920,32 @@
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -945,12 +954,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -962,35 +971,35 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -999,12 +1008,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1016,35 +1025,35 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="M8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1053,12 +1062,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1070,35 +1079,35 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="s">
+      <c r="M11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
@@ -1107,12 +1116,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1124,35 +1133,35 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="O14" t="s">
+      <c r="M14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1161,12 +1170,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1178,35 +1187,35 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="O17" t="s">
+      <c r="M17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -1215,12 +1224,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1232,35 +1241,35 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="O20" t="s">
+      <c r="M20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -1269,12 +1278,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1286,26 +1295,80 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1330,10 +1393,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1372,10 +1435,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1399,16 +1462,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -137,49 +137,40 @@
     <t>co2e_emissions</t>
   </si>
   <si>
-    <t>energy_baseline</t>
-  </si>
-  <si>
-    <t>energy_mult</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>bottled_gas_LPG_baseline</t>
-  </si>
-  <si>
-    <t>bottled_gas_LPG_mult</t>
-  </si>
-  <si>
-    <t>bottled_gas_LPG</t>
-  </si>
-  <si>
-    <t>refridgerants_baseline</t>
-  </si>
-  <si>
-    <t>refridgerants_mult</t>
-  </si>
-  <si>
-    <t>refridgerants</t>
-  </si>
-  <si>
-    <t>liquid_fuel_baseline</t>
-  </si>
-  <si>
-    <t>liquid_fuel_mult</t>
-  </si>
-  <si>
-    <t>liquid_fuel</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_owned_baseline</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_owned_mult</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_owned</t>
+    <t>grid_electricity_baseline</t>
+  </si>
+  <si>
+    <t>grid_electricity_mult</t>
+  </si>
+  <si>
+    <t>grid_electricity</t>
+  </si>
+  <si>
+    <t>bottled_gas_baseline</t>
+  </si>
+  <si>
+    <t>bottled_gas_mult</t>
+  </si>
+  <si>
+    <t>bottled_gas</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_baseline</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_mult</t>
+  </si>
+  <si>
+    <t>vehicle_fuel</t>
+  </si>
+  <si>
+    <t>travel_baseline</t>
+  </si>
+  <si>
+    <t>travel_mult</t>
+  </si>
+  <si>
+    <t>travel</t>
   </si>
   <si>
     <t>anaesthetic_gases_baseline</t>
@@ -191,6 +182,15 @@
     <t>anaesthetic_gases</t>
   </si>
   <si>
+    <t>refrigerant_baseline</t>
+  </si>
+  <si>
+    <t>refrigerant_mult</t>
+  </si>
+  <si>
+    <t>refrigerant</t>
+  </si>
+  <si>
     <t>waste_baseline</t>
   </si>
   <si>
@@ -212,13 +212,13 @@
     <t>Total CO2e emissions</t>
   </si>
   <si>
-    <t>Energy - baseline</t>
-  </si>
-  <si>
-    <t>Energy - multiplier</t>
-  </si>
-  <si>
-    <t>Energy</t>
+    <t>Grid Electricity - baseline</t>
+  </si>
+  <si>
+    <t>Grid Electricity - multiplier</t>
+  </si>
+  <si>
+    <t>Grid Electricity</t>
   </si>
   <si>
     <t>Bottled gas(LPG) - baseline</t>
@@ -230,24 +230,6 @@
     <t>Bottled gas(LPG)</t>
   </si>
   <si>
-    <t>Refridgerants - baseline</t>
-  </si>
-  <si>
-    <t>Refridgerants - multiplier</t>
-  </si>
-  <si>
-    <t>Refridgerants</t>
-  </si>
-  <si>
-    <t>Liquid fuel(Petrol or Diesel) - baseline</t>
-  </si>
-  <si>
-    <t>Liquid fuel(Petrol or Diesel) - multiplier</t>
-  </si>
-  <si>
-    <t>Liquid fuel(Petrol or Diesel)</t>
-  </si>
-  <si>
     <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
   </si>
   <si>
@@ -257,13 +239,31 @@
     <t>Vehicle Fuel (Owned Vehicles)</t>
   </si>
   <si>
-    <t>Anaesthetic Gases - baseline</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases - multiplier</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases</t>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - baseline</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - multiplier</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus)</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - multiplier</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases</t>
+  </si>
+  <si>
+    <t>Refrigerants - baseline</t>
+  </si>
+  <si>
+    <t>Refrigerants - multiplier</t>
+  </si>
+  <si>
+    <t>Refrigerants</t>
   </si>
   <si>
     <t>Waste - baseline</t>
@@ -287,25 +287,25 @@
     <t>number</t>
   </si>
   <si>
-    <t>energy+bottled_gas_LPG+refridgerants+liquid_fuel+vehicle_fuel_owned+anaesthetic_gases+waste+inhalers</t>
-  </si>
-  <si>
-    <t>energy_baseline*(1-energy_mult)</t>
-  </si>
-  <si>
-    <t>bottled_gas_LPG_baseline*(1-bottled_gas_LPG_mult)</t>
-  </si>
-  <si>
-    <t>refridgerants_baseline*(1-refridgerants_mult)</t>
-  </si>
-  <si>
-    <t>liquid_fuel_baseline*(1-liquid_fuel_mult)</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_owned_baseline*(1-vehicle_fuel_owned_mult)</t>
+    <t>grid_electricity+bottled_gas+vehicle_fuel+travel+anaesthetic_gases+refrigerant+waste+inhalers</t>
+  </si>
+  <si>
+    <t>grid_electricity_baseline*(1-grid_electricity_mult)</t>
+  </si>
+  <si>
+    <t>bottled_gas_baseline*(1-bottled_gas_mult)</t>
+  </si>
+  <si>
+    <t>vehicle_fuel_baseline*(1-vehicle_fuel_mult)</t>
+  </si>
+  <si>
+    <t>travel_baseline*(1-travel_mult)</t>
   </si>
   <si>
     <t>anaesthetic_gases_baseline*(1-anaesthetic_gases_mult)</t>
+  </si>
+  <si>
+    <t>refrigerant_baseline*(1-refrigerant_mult)</t>
   </si>
   <si>
     <t>waste_baseline*(1-waste_mult)</t>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -143,13 +143,22 @@
     <t>co2e_emissions</t>
   </si>
   <si>
-    <t>energy_baseline</t>
-  </si>
-  <si>
-    <t>energy_mult</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>grid_electricity_baseline</t>
+  </si>
+  <si>
+    <t>grid_electricity_mult</t>
+  </si>
+  <si>
+    <t>grid_electricity</t>
+  </si>
+  <si>
+    <t>bottled_gas_baseline</t>
+  </si>
+  <si>
+    <t>bottled_gas_mult</t>
+  </si>
+  <si>
+    <t>bottled_gas</t>
   </si>
   <si>
     <t>vehicle_fuel_baseline</t>
@@ -179,13 +188,13 @@
     <t>anaesthetic_gases</t>
   </si>
   <si>
-    <t>refridgerant_baseline</t>
-  </si>
-  <si>
-    <t>refridgerant_mult</t>
-  </si>
-  <si>
-    <t>refridgerant</t>
+    <t>refrigerant_baseline</t>
+  </si>
+  <si>
+    <t>refrigerant_mult</t>
+  </si>
+  <si>
+    <t>refrigerant</t>
   </si>
   <si>
     <t>waste_baseline</t>
@@ -209,49 +218,58 @@
     <t>Total CO2e emissions</t>
   </si>
   <si>
-    <t>Energy - baseline</t>
-  </si>
-  <si>
-    <t>Energy - multiplier</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel - baseline</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel - multiplier</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel</t>
-  </si>
-  <si>
-    <t>Travel - baseline</t>
-  </si>
-  <si>
-    <t>Travel - multiplier</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases - baseline</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases - multiplier</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases</t>
-  </si>
-  <si>
-    <t>Refridgerant - baseline</t>
-  </si>
-  <si>
-    <t>Refridgerant - multiplier</t>
-  </si>
-  <si>
-    <t>Refridgerant</t>
+    <t>Grid Electricity - baseline</t>
+  </si>
+  <si>
+    <t>Grid Electricity - multiplier</t>
+  </si>
+  <si>
+    <t>Grid Electricity</t>
+  </si>
+  <si>
+    <t>Bottled gas(LPG) - baseline</t>
+  </si>
+  <si>
+    <t>Bottled gas(LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Bottled gas(LPG)</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles)</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - baseline</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - multiplier</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus)</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - multiplier</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases</t>
+  </si>
+  <si>
+    <t>Refrigerants - baseline</t>
+  </si>
+  <si>
+    <t>Refrigerants - multiplier</t>
+  </si>
+  <si>
+    <t>Refrigerants</t>
   </si>
   <si>
     <t>Waste - baseline</t>
@@ -275,10 +293,13 @@
     <t>number</t>
   </si>
   <si>
-    <t>energy+vehicle_fuel+travel+anaesthetic_gases+refridgerant+waste+inhalers</t>
-  </si>
-  <si>
-    <t>energy_baseline*(1-energy_mult)</t>
+    <t>grid_electricity+bottled_gas+vehicle_fuel+travel+anaesthetic_gases+refrigerant+waste+inhalers</t>
+  </si>
+  <si>
+    <t>grid_electricity_baseline*(1-grid_electricity_mult)</t>
+  </si>
+  <si>
+    <t>bottled_gas_baseline*(1-bottled_gas_mult)</t>
   </si>
   <si>
     <t>vehicle_fuel_baseline*(1-vehicle_fuel_mult)</t>
@@ -290,7 +311,7 @@
     <t>anaesthetic_gases_baseline*(1-anaesthetic_gases_mult)</t>
   </si>
   <si>
-    <t>refridgerant_baseline*(1-refridgerant_mult)</t>
+    <t>refrigerant_baseline*(1-refrigerant_mult)</t>
   </si>
   <si>
     <t>waste_baseline*(1-waste_mult)</t>
@@ -861,7 +882,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -919,13 +940,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -936,7 +957,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -950,7 +971,7 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -962,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -973,10 +994,10 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
@@ -990,7 +1011,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1004,7 +1025,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1016,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
@@ -1027,10 +1048,10 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
@@ -1044,7 +1065,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1058,7 +1079,7 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1070,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
@@ -1081,10 +1102,10 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
@@ -1098,7 +1119,7 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
@@ -1112,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1124,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
@@ -1135,10 +1156,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
@@ -1152,7 +1173,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1166,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1178,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
@@ -1189,10 +1210,10 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
@@ -1206,7 +1227,7 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -1220,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1232,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
@@ -1243,10 +1264,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
@@ -1260,7 +1281,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -1274,7 +1295,7 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1286,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
         <v>8</v>
@@ -1297,15 +1318,69 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
       </c>
       <c r="O23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1330,10 +1405,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1372,10 +1447,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1399,16 +1474,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>Targetable</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
   </si>
   <si>
     <t>co2e_emissions</t>
@@ -882,13 +876,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -926,38 +920,32 @@
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -966,12 +954,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -983,35 +971,35 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1020,12 +1008,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1037,35 +1025,35 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="M8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1074,12 +1062,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1091,35 +1079,35 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="s">
+      <c r="M11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
@@ -1128,12 +1116,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1145,35 +1133,35 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="O14" t="s">
+      <c r="M14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1182,12 +1170,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1199,35 +1187,35 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="O17" t="s">
+      <c r="M17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -1236,12 +1224,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1253,35 +1241,35 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="O20" t="s">
+      <c r="M20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -1290,12 +1278,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1307,35 +1295,35 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
       </c>
-      <c r="O23" t="s">
+      <c r="M23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -1344,12 +1332,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1361,26 +1349,26 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s">
         <v>28</v>
       </c>
-      <c r="O26" t="s">
+      <c r="M26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1405,10 +1393,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1447,10 +1435,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1474,16 +1462,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Targetable</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
   </si>
   <si>
     <t>co2e_emissions</t>
@@ -876,13 +882,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -920,32 +926,38 @@
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -954,12 +966,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -971,35 +983,35 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1008,12 +1020,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1025,35 +1037,35 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1062,12 +1074,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1079,35 +1091,35 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
@@ -1116,12 +1128,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1133,35 +1145,35 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1170,12 +1182,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1187,35 +1199,35 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -1224,12 +1236,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1241,35 +1253,35 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -1278,12 +1290,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1295,35 +1307,35 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -1332,12 +1344,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1349,26 +1361,26 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
         <v>28</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1393,10 +1405,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1435,10 +1447,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1462,16 +1474,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -134,85 +134,97 @@
     <t>Targetable</t>
   </si>
   <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
     <t>co2e_emissions</t>
   </si>
   <si>
-    <t>grid_electricity_baseline</t>
-  </si>
-  <si>
-    <t>grid_electricity_mult</t>
-  </si>
-  <si>
-    <t>grid_electricity</t>
-  </si>
-  <si>
-    <t>bottled_gas_baseline</t>
-  </si>
-  <si>
-    <t>bottled_gas_mult</t>
-  </si>
-  <si>
-    <t>bottled_gas</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_baseline</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_mult</t>
-  </si>
-  <si>
-    <t>vehicle_fuel</t>
-  </si>
-  <si>
-    <t>travel_baseline</t>
-  </si>
-  <si>
-    <t>travel_mult</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>anaesthetic_gases_baseline</t>
-  </si>
-  <si>
-    <t>anaesthetic_gases_mult</t>
-  </si>
-  <si>
-    <t>anaesthetic_gases</t>
-  </si>
-  <si>
-    <t>refrigerant_baseline</t>
-  </si>
-  <si>
-    <t>refrigerant_mult</t>
-  </si>
-  <si>
-    <t>refrigerant</t>
-  </si>
-  <si>
-    <t>waste_baseline</t>
-  </si>
-  <si>
-    <t>waste_mult</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>inhalers_baseline</t>
-  </si>
-  <si>
-    <t>inhalers_mult</t>
-  </si>
-  <si>
-    <t>inhalers</t>
+    <t>Grid_Electricity_baseline</t>
+  </si>
+  <si>
+    <t>Grid_Electricity_mult</t>
+  </si>
+  <si>
+    <t>Grid_Electricity</t>
+  </si>
+  <si>
+    <t>Grid_Gas_baseline</t>
+  </si>
+  <si>
+    <t>Grid_Gas_mult</t>
+  </si>
+  <si>
+    <t>Grid_Gas</t>
+  </si>
+  <si>
+    <t>Bottled_Gas_baseline</t>
+  </si>
+  <si>
+    <t>Bottled_Gas_mult</t>
+  </si>
+  <si>
+    <t>Bottled_Gas</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel_baseline</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel_mult</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned_baseline</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned_mult</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned</t>
+  </si>
+  <si>
+    <t>Business_Travel_baseline</t>
+  </si>
+  <si>
+    <t>Business_Travel_mult</t>
+  </si>
+  <si>
+    <t>Business_Travel</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases_baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases_mult</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases_baseline</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases_mult</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases</t>
+  </si>
+  <si>
+    <t>Waste_Management_baseline</t>
+  </si>
+  <si>
+    <t>Waste_Management_mult</t>
+  </si>
+  <si>
+    <t>Waste_Management</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers_baseline</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers_mult</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers</t>
   </si>
   <si>
     <t>Total CO2e emissions</t>
@@ -227,13 +239,31 @@
     <t>Grid Electricity</t>
   </si>
   <si>
-    <t>Bottled gas(LPG) - baseline</t>
-  </si>
-  <si>
-    <t>Bottled gas(LPG) - multiplier</t>
-  </si>
-  <si>
-    <t>Bottled gas(LPG)</t>
+    <t>Grid gas - baseline</t>
+  </si>
+  <si>
+    <t>Grid gas - multiplier</t>
+  </si>
+  <si>
+    <t>Grid gas</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG) - baseline</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG)</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel) - baseline</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel) - multiplier</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel)</t>
   </si>
   <si>
     <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
@@ -245,13 +275,13 @@
     <t>Vehicle Fuel (Owned Vehicles)</t>
   </si>
   <si>
-    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - baseline</t>
-  </si>
-  <si>
-    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - multiplier</t>
-  </si>
-  <si>
-    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus)</t>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - baseline</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus)</t>
   </si>
   <si>
     <t>Anaesthetic gases - baseline</t>
@@ -293,31 +323,37 @@
     <t>number</t>
   </si>
   <si>
-    <t>grid_electricity+bottled_gas+vehicle_fuel+travel+anaesthetic_gases+refrigerant+waste+inhalers</t>
-  </si>
-  <si>
-    <t>grid_electricity_baseline*(1-grid_electricity_mult)</t>
-  </si>
-  <si>
-    <t>bottled_gas_baseline*(1-bottled_gas_mult)</t>
-  </si>
-  <si>
-    <t>vehicle_fuel_baseline*(1-vehicle_fuel_mult)</t>
-  </si>
-  <si>
-    <t>travel_baseline*(1-travel_mult)</t>
-  </si>
-  <si>
-    <t>anaesthetic_gases_baseline*(1-anaesthetic_gases_mult)</t>
-  </si>
-  <si>
-    <t>refrigerant_baseline*(1-refrigerant_mult)</t>
-  </si>
-  <si>
-    <t>waste_baseline*(1-waste_mult)</t>
-  </si>
-  <si>
-    <t>inhalers_baseline*(1-inhalers_mult)</t>
+    <t>Grid_Electricity+Grid_Gas+Bottled_Gas+Liquid_Fuel+Vehicle_Fuel_Owned+Business_Travel+Anaesthetic_Gases+Refrigeration_Gases+Waste_Management+Medical_Inhalers</t>
+  </si>
+  <si>
+    <t>Grid_Electricity_baseline*(1-Grid_Electricity_mult)</t>
+  </si>
+  <si>
+    <t>Grid_Gas_baseline*(1-Grid_Gas_mult)</t>
+  </si>
+  <si>
+    <t>Bottled_Gas_baseline*(1-Bottled_Gas_mult)</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel_baseline*(1-Liquid_Fuel_mult)</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned_baseline*(1-Vehicle_Fuel_Owned_mult)</t>
+  </si>
+  <si>
+    <t>Business_Travel_baseline*(1-Business_Travel_mult)</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases_baseline*(1-Anaesthetic_Gases_mult)</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases_baseline*(1-Refrigeration_Gases_mult)</t>
+  </si>
+  <si>
+    <t>Waste_Management_baseline*(1-Waste_Management_mult)</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers_baseline*(1-Medical_Inhalers_mult)</t>
   </si>
   <si>
     <t>y</t>
@@ -882,13 +918,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -926,38 +962,32 @@
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -966,12 +996,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -983,35 +1013,35 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1020,12 +1050,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1037,35 +1067,35 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="M8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1074,12 +1104,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1091,35 +1121,35 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="s">
+      <c r="M11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
@@ -1128,12 +1158,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1145,35 +1175,35 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="O14" t="s">
+      <c r="M14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1182,12 +1212,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1199,35 +1229,35 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="O17" t="s">
+      <c r="M17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -1236,12 +1266,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1253,35 +1283,35 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="O20" t="s">
+      <c r="M20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -1290,12 +1320,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1307,35 +1337,35 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
       </c>
-      <c r="O23" t="s">
+      <c r="M23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -1344,12 +1374,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1361,26 +1391,134 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
         <v>98</v>
       </c>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1405,10 +1543,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1447,10 +1585,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1474,16 +1612,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/carbomica_framework.xlsx
+++ b/carbomica_framework.xlsx
@@ -275,13 +275,13 @@
     <t>Vehicle Fuel (Owned Vehicles)</t>
   </si>
   <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - baseline</t>
-  </si>
-  <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
-  </si>
-  <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus)</t>
+    <t>Business travel - baseline</t>
+  </si>
+  <si>
+    <t>Business travel - multiplier</t>
+  </si>
+  <si>
+    <t>Business travel</t>
   </si>
   <si>
     <t>Anaesthetic gases - baseline</t>
